--- a/biology/Botanique/Gomphide_glutineux/Gomphide_glutineux.xlsx
+++ b/biology/Botanique/Gomphide_glutineux/Gomphide_glutineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gomphidius glutinosus
 Le Gomphide glutineux (Gomphidius glutinosus) est un champignon basidiomycète de la famille des Gomphidiaceae. Comme son nom l'indique, il est caractérisé par son aspect visqueux comme le gluten.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau : 5 à 10 cm, convexe puis étalé, voire déprimé et mamelonné, brun clair, plus foncé au centre, recouvert d'un voile gluant transparent, épais et détachable, relié à la zone annulaire du pied chez les exemplaires jeunes, comme une cortine ; marge incurvée au début.
 Lames : espacées, blanches virant progressivement au brun foncé : la sporée est noire.
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gomphide glutineux pousse de juillet à novembre sous les conifères, souvent l'épicéa.
 </t>
@@ -577,9 +593,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après le mycologue Paul Stamets, le Gomphide glutineux concentre le Césium 137 plus que n'importe quel autre champignon étudié, avec des taux atteignant des taux jusqu'à 10 000 fois le taux présent dans son environnement[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le mycologue Paul Stamets, le Gomphide glutineux concentre le Césium 137 plus que n'importe quel autre champignon étudié, avec des taux atteignant des taux jusqu'à 10 000 fois le taux présent dans son environnement.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une fois nettoyé de sa « bave », c'est un comestible honorable ou considéré médiocre[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fois nettoyé de sa « bave », c'est un comestible honorable ou considéré médiocre.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne peut guère se confondre qu'avec Gomphidius maculatus, également visqueux et poussant, lui, sous les mélèzes.
 </t>
